--- a/docs/StructureDefinition-bc-organizationaffiliation.xlsx
+++ b/docs/StructureDefinition-bc-organizationaffiliation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="222">
   <si>
     <t>Path</t>
   </si>
@@ -440,6 +440,133 @@
     <t>.player</t>
   </si>
   <si>
+    <t>OrganizationAffiliation.participatingOrganization.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>endReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-end-reason-extension}
+</t>
+  </si>
+  <si>
+    <t>BC End Reason Extension</t>
+  </si>
+  <si>
+    <t>Tracking end reasons.</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
@@ -515,6 +642,24 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
+    <t>OrganizationAffiliation.location.id</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.location.extension</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.location.reference</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.location.type</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.location.identifier</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.location.display</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
@@ -534,7 +679,7 @@
     <t>OrganizationAffiliation.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/BCContactPoint}
+    <t xml:space="preserve">ContactPoint {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-contactPoint}
 </t>
   </si>
   <si>
@@ -569,9 +714,6 @@
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for this role.</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -720,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -729,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -756,7 +898,7 @@
     <col min="25" max="25" width="44.79296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="44.6640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2349,7 +2491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>135</v>
       </c>
@@ -2362,25 +2504,25 @@
         <v>39</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2431,34 +2573,34 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2468,24 +2610,26 @@
         <v>40</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>38</v>
@@ -2510,31 +2654,31 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2546,10 +2690,10 @@
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2557,9 +2701,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
@@ -2568,7 +2714,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>47</v>
@@ -2577,10 +2723,10 @@
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>148</v>
@@ -2613,13 +2759,13 @@
         <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>38</v>
@@ -2637,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2649,18 +2795,18 @@
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2671,10 +2817,10 @@
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2683,15 +2829,17 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>38</v>
@@ -2740,30 +2888,30 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2774,7 +2922,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>38</v>
@@ -2783,18 +2931,20 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -2819,13 +2969,13 @@
         <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>38</v>
@@ -2843,13 +2993,13 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>38</v>
@@ -2858,13 +3008,13 @@
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>164</v>
       </c>
@@ -2877,30 +3027,30 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>38</v>
       </c>
@@ -2948,22 +3098,22 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -2971,7 +3121,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2982,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>38</v>
@@ -2991,18 +3141,20 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
@@ -3051,13 +3203,13 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>38</v>
@@ -3066,14 +3218,1470 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="K23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK22">
+  <autoFilter ref="A1:AK36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3083,7 +4691,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
